--- a/docs/results-experiments/results.xlsx
+++ b/docs/results-experiments/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="min" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="24">
   <si>
     <t>Instance</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Quality</t>
   </si>
   <si>
     <t>Quality standard deviation</t>
@@ -514,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +829,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:G20" si="5">(B7-$H7)/$H7*100</f>
+        <f t="shared" ref="B20:F20" si="5">(B7-$H7)/$H7*100</f>
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -1037,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:G22" si="7">(B9-$H9)/$H9*100</f>
+        <f t="shared" ref="B22:F22" si="7">(B9-$H9)/$H9*100</f>
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -1066,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:G23" si="8">(B10-$H10)/$H10*100</f>
+        <f t="shared" ref="B23:F23" si="8">(B10-$H10)/$H10*100</f>
         <v>2.5611412490951828</v>
       </c>
       <c r="C23" s="1">
@@ -1505,7 +1502,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1860,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,8 +1873,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
+      <c r="A1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2178,7 +2175,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,7 +2255,7 @@
         <v>5.7699199617727865</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f>(G4-$H4)/$H4*100</f>
         <v>1.6843865726914347</v>
       </c>
     </row>
@@ -2533,9 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2550,7 +2545,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,7 +2803,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,7 +3061,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
